--- a/test-thesis/data/network_indicators_cleaning.xlsx
+++ b/test-thesis/data/network_indicators_cleaning.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\big yeti\autogis\test-thesis\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BUYA-PC\AutoGIS\test-thesis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,68 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>k_avg</t>
   </si>
   <si>
-    <t>edge_length_total</t>
-  </si>
-  <si>
-    <t>edge_length_avg</t>
-  </si>
-  <si>
-    <t>streets_per_node_avg</t>
-  </si>
-  <si>
-    <t>intersection_count</t>
-  </si>
-  <si>
-    <t>street_length_total</t>
-  </si>
-  <si>
-    <t>street_segment_count</t>
-  </si>
-  <si>
-    <t>street_length_avg</t>
-  </si>
-  <si>
-    <t>circuity_avg</t>
-  </si>
-  <si>
-    <t>self_loop_proportion</t>
-  </si>
-  <si>
-    <t>clean_intersection_count</t>
-  </si>
-  <si>
-    <t>node_density_km</t>
-  </si>
-  <si>
-    <t>intersection_density_km</t>
-  </si>
-  <si>
-    <t>edge_density_km</t>
-  </si>
-  <si>
-    <t>street_density_km</t>
-  </si>
-  <si>
-    <t>clean_intersection_density_km</t>
-  </si>
-  <si>
-    <t>1way_count</t>
-  </si>
-  <si>
-    <t>2way_count</t>
-  </si>
-  <si>
-    <t>3way_count</t>
-  </si>
-  <si>
-    <t>4way_count</t>
-  </si>
-  <si>
     <t>1way_proportion</t>
   </si>
   <si>
@@ -93,39 +36,12 @@
     <t>4way_proportion</t>
   </si>
   <si>
-    <t>avg_neighbor_degree_avg</t>
-  </si>
-  <si>
-    <t>avg_weighted_neighbor_degree_avg</t>
-  </si>
-  <si>
-    <t>degree_centrality_avg</t>
-  </si>
-  <si>
-    <t>clustering_coefficient_avg</t>
-  </si>
-  <si>
-    <t>clustering_coefficient_weighted_avg</t>
-  </si>
-  <si>
     <t>pagerank_max_node</t>
   </si>
   <si>
-    <t>pagerank_max</t>
-  </si>
-  <si>
     <t>pagerank_min_node</t>
   </si>
   <si>
-    <t>pagerank_min</t>
-  </si>
-  <si>
-    <t>diameter</t>
-  </si>
-  <si>
-    <t>radius</t>
-  </si>
-  <si>
     <t>center</t>
   </si>
   <si>
@@ -159,12 +75,6 @@
     <t>[5994546042]</t>
   </si>
   <si>
-    <t>closeness_centrality_avg</t>
-  </si>
-  <si>
-    <t>betweenness_centrality_avg</t>
-  </si>
-  <si>
     <t>Indicators</t>
   </si>
   <si>
@@ -186,22 +96,112 @@
     <t>Adum</t>
   </si>
   <si>
-    <t>Tafo</t>
-  </si>
-  <si>
     <t>Atonsu</t>
   </si>
   <si>
-    <t>n (nodes)</t>
-  </si>
-  <si>
-    <t>m (edges)</t>
+    <t>n - number of nodes</t>
+  </si>
+  <si>
+    <t>m - number of edges</t>
+  </si>
+  <si>
+    <t>Total edge length</t>
+  </si>
+  <si>
+    <t>Avg street per node</t>
+  </si>
+  <si>
+    <t>Intersection count</t>
+  </si>
+  <si>
+    <t>Street segment count</t>
+  </si>
+  <si>
+    <t>Avg circuity</t>
+  </si>
+  <si>
+    <t>Self loop proportion</t>
+  </si>
+  <si>
+    <t>Clean intersection count</t>
+  </si>
+  <si>
+    <t>Avg street length (m)</t>
+  </si>
+  <si>
+    <t>Total street length (m)</t>
+  </si>
+  <si>
+    <t>Node density (per km)</t>
+  </si>
+  <si>
+    <t>Intersection density (per km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street density (per km) </t>
+  </si>
+  <si>
+    <t>Clean intersection density (km)</t>
+  </si>
+  <si>
+    <t>Mean of avg neighborhood degree</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Max pagerank</t>
+  </si>
+  <si>
+    <t>Min pagerank</t>
+  </si>
+  <si>
+    <t>Avg betweenness centrality</t>
+  </si>
+  <si>
+    <t>Avg closeness centrality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of 1 way streets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of 3 way streets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of 2 way streets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of 4 way streets </t>
+  </si>
+  <si>
+    <t>Avg degree centrality</t>
+  </si>
+  <si>
+    <t>Avg clustering coefficient</t>
+  </si>
+  <si>
+    <t>Avg weighted clustering coefficient</t>
+  </si>
+  <si>
+    <t>Mean of avg weighted neighbor degree</t>
+  </si>
+  <si>
+    <t>Avg edge length (m)</t>
+  </si>
+  <si>
+    <t>Edge density (km/km2)</t>
+  </si>
+  <si>
+    <t>Diameter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -687,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +695,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1018,32 +1021,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" customWidth="1"/>
-    <col min="3" max="3" width="28.5703125" customWidth="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
+    <col min="1" max="1" width="36" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
@@ -1051,67 +1054,65 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>55</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3">
         <v>245</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>272</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>250</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>278</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>185</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
         <v>543</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>654</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>610</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>618</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>462</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>415</v>
       </c>
     </row>
@@ -1119,897 +1120,913 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>4.4326530612244897</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>4.8088235294117601</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>4.88</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="5">
         <v>4.4460431654676196</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>4.9945945945945898</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>4.6111111111111098</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
+        <v>28</v>
+      </c>
+      <c r="B6" s="5">
         <v>39576.1329999999</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>56163.275999999903</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>53953.811999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="5">
         <v>44779.828000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>50352.375999999902</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>38638.597999999904</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
+        <v>55</v>
+      </c>
+      <c r="B7" s="5">
         <v>72.884222836095603</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>85.876568807339396</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>88.448872131147496</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="5">
         <v>72.459268608414305</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>108.987826839826</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>93.1050554216867</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5">
         <v>2.3591836734693801</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>2.5698529411764701</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>2.6</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="5">
         <v>2.5719424460431601</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>2.6918918918918902</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>2.6111111111111098</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5">
         <v>162</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>201</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>198</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="5">
         <v>211</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>148</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
+        <v>36</v>
+      </c>
+      <c r="B10" s="5">
         <v>19868.93</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>28081.637999999901</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>26976.905999999901</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="5">
         <v>23635.817999999999</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>25176.187999999998</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>20341.157999999901</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11">
+        <v>31</v>
+      </c>
+      <c r="B11" s="5">
         <v>274</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>327</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>305</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="5">
         <v>338</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>231</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="5">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12">
+        <v>35</v>
+      </c>
+      <c r="B12" s="5">
         <v>72.514343065693396</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>85.876568807339396</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>88.448872131147496</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>69.928455621301794</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>108.987826839826</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>91.626837837837698</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
+        <v>32</v>
+      </c>
+      <c r="B13" s="5">
         <v>1.0665630915945701</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>1.03665231459166</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>1.05141202672447</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="5">
         <v>1.08452698266384</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>1.04425202322317</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <v>1.1207240144874899</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14">
+        <v>33</v>
+      </c>
+      <c r="B14" s="5">
         <v>3.6496350364963498E-3</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>0</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="5">
         <v>0</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="5">
         <v>0</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15">
+        <v>34</v>
+      </c>
+      <c r="B15" s="5">
         <v>118</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5">
         <v>159</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="5">
         <v>154</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="5">
         <v>118</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>127</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="5">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
+        <v>37</v>
+      </c>
+      <c r="B16" s="5">
         <v>150.05411633846001</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="5">
         <v>156.36065393990199</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="5">
         <v>144.60613117367501</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="5">
         <v>158.515490816214</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>103.878924428913</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="5">
         <v>104.839774595181</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17">
+        <v>38</v>
+      </c>
+      <c r="B17" s="5">
         <v>99.219456517675695</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="5">
         <v>115.545924418824</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="5">
         <v>114.52805588955</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="5">
         <v>120.31211713029199</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>83.103139543130993</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="5">
         <v>82.124490099558599</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="5">
         <v>24239.0272057484</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="5">
         <v>32285.759421938201</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="5">
         <v>31208.2080615673</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="5">
         <v>25533.440338437598</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>28273.246817947202</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="5">
         <v>22504.788361076698</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19">
+        <v>39</v>
+      </c>
+      <c r="B19" s="5">
         <v>12169.039729553901</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="5">
         <v>16142.8797109691</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="5">
         <v>15604.104030783599</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="5">
         <v>13477.134140693201</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>14136.623408973601</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="5">
         <v>11847.568998471999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="B20" s="5">
         <v>72.270962154850196</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="5">
         <v>91.401999913398697</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="5">
         <v>89.077376802984006</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="5">
         <v>67.283553655803303</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>71.311477851200195</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="5">
         <v>57.079432835154201</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="3">
+        <v>83</v>
+      </c>
+      <c r="C21" s="3">
+        <v>71</v>
+      </c>
+      <c r="D21" s="3">
+        <v>52</v>
+      </c>
+      <c r="E21" s="3">
+        <v>67</v>
+      </c>
+      <c r="F21" s="3">
+        <v>37</v>
+      </c>
+      <c r="G21" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="3">
+        <v>156</v>
+      </c>
+      <c r="C23" s="3">
+        <v>176</v>
+      </c>
+      <c r="D23" s="3">
+        <v>194</v>
+      </c>
+      <c r="E23" s="3">
+        <v>194</v>
+      </c>
+      <c r="F23" s="3">
+        <v>131</v>
+      </c>
+      <c r="G23" s="3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="3">
+        <v>5</v>
+      </c>
+      <c r="C24" s="3">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3">
         <v>16</v>
       </c>
-      <c r="B21">
-        <v>83</v>
-      </c>
-      <c r="C21">
-        <v>71</v>
-      </c>
-      <c r="D21">
-        <v>52</v>
-      </c>
-      <c r="E21">
-        <v>67</v>
-      </c>
-      <c r="F21">
-        <v>37</v>
-      </c>
-      <c r="G21">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="F24" s="3">
         <v>17</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>156</v>
-      </c>
-      <c r="C23">
-        <v>176</v>
-      </c>
-      <c r="D23">
-        <v>194</v>
-      </c>
-      <c r="E23">
-        <v>194</v>
-      </c>
-      <c r="F23">
-        <v>131</v>
-      </c>
-      <c r="G23">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24">
-        <v>5</v>
-      </c>
-      <c r="C24">
-        <v>25</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>16</v>
-      </c>
-      <c r="F24">
-        <v>17</v>
-      </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B25">
-        <v>0.33877551020408098</v>
-      </c>
-      <c r="C25">
-        <v>0.26102941176470501</v>
-      </c>
-      <c r="D25">
-        <v>0.20799999999999999</v>
-      </c>
-      <c r="E25">
-        <v>0.24100719424460401</v>
-      </c>
-      <c r="F25">
-        <v>0.2</v>
-      </c>
-      <c r="G25">
-        <v>0.21666666666666601</v>
+        <v>41</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2.6612244897959099</v>
+      </c>
+      <c r="C25" s="5">
+        <v>2.8091299019607798</v>
+      </c>
+      <c r="D25" s="5">
+        <v>2.7476666666666598</v>
+      </c>
+      <c r="E25" s="5">
+        <v>2.5911270983213401</v>
+      </c>
+      <c r="F25" s="5">
+        <v>2.8833333333333302</v>
+      </c>
+      <c r="G25" s="5">
+        <v>2.5953703703703699</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>3.5971223021582701E-3</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+        <v>54</v>
+      </c>
+      <c r="B26" s="5">
+        <v>9.4060299511676895E-2</v>
+      </c>
+      <c r="C26" s="5">
+        <v>4.4855511991016797E-2</v>
+      </c>
+      <c r="D26" s="5">
+        <v>4.3693843693745002E-2</v>
+      </c>
+      <c r="E26" s="5">
+        <v>6.3875488675070299E-2</v>
+      </c>
+      <c r="F26" s="5">
+        <v>3.16920647734866E-2</v>
+      </c>
+      <c r="G26" s="5">
+        <v>4.1221356852345098E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27">
-        <v>0.63673469387755099</v>
-      </c>
-      <c r="C27">
-        <v>0.64705882352941102</v>
-      </c>
-      <c r="D27">
-        <v>0.77600000000000002</v>
-      </c>
-      <c r="E27">
-        <v>0.69784172661870503</v>
-      </c>
-      <c r="F27">
-        <v>0.70810810810810798</v>
-      </c>
-      <c r="G27">
-        <v>0.73888888888888804</v>
+        <v>51</v>
+      </c>
+      <c r="B27" s="5">
+        <v>1.81666109066577E-2</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1.7744736270892101E-2</v>
+      </c>
+      <c r="D27" s="5">
+        <v>1.9598393574297199E-2</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1.6050697348258602E-2</v>
+      </c>
+      <c r="F27" s="5">
+        <v>2.7144535840187899E-2</v>
+      </c>
+      <c r="G27" s="5">
+        <v>2.5760397268777099E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28">
-        <v>2.04081632653061E-2</v>
-      </c>
-      <c r="C28">
-        <v>9.1911764705882304E-2</v>
-      </c>
-      <c r="D28">
-        <v>1.6E-2</v>
-      </c>
-      <c r="E28">
+        <v>52</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2.6530612244897899E-2</v>
+      </c>
+      <c r="C28" s="5">
+        <v>6.1274509803921498E-3</v>
+      </c>
+      <c r="D28" s="5">
+        <v>7.9999999999999898E-3</v>
+      </c>
+      <c r="E28" s="5">
         <v>5.7553956834532301E-2</v>
       </c>
-      <c r="F28">
-        <v>9.1891891891891897E-2</v>
-      </c>
-      <c r="G28">
-        <v>4.4444444444444398E-2</v>
+      <c r="F28" s="5">
+        <v>9.9099099099099006E-3</v>
+      </c>
+      <c r="G28" s="5">
+        <v>6.6666666666666596E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29">
-        <v>2.6612244897959099</v>
-      </c>
-      <c r="C29">
-        <v>2.8091299019607798</v>
-      </c>
-      <c r="D29">
-        <v>2.7476666666666598</v>
-      </c>
-      <c r="E29">
-        <v>2.5911270983213401</v>
-      </c>
-      <c r="F29">
-        <v>2.8833333333333302</v>
-      </c>
-      <c r="G29">
-        <v>2.5953703703703699</v>
+        <v>53</v>
+      </c>
+      <c r="B29" s="5">
+        <v>3.8558813849204798E-3</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1.1296682583327199E-3</v>
+      </c>
+      <c r="D29" s="5">
+        <v>1.4812349904721001E-3</v>
+      </c>
+      <c r="E29" s="5">
+        <v>6.8954756272860303E-3</v>
+      </c>
+      <c r="F29" s="5">
+        <v>8.1754586138236098E-4</v>
+      </c>
+      <c r="G29" s="5">
+        <v>5.78252685595043E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>25</v>
-      </c>
-      <c r="B30">
-        <v>9.4060299511676895E-2</v>
-      </c>
-      <c r="C30">
-        <v>4.4855511991016797E-2</v>
-      </c>
-      <c r="D30">
-        <v>4.3693843693745002E-2</v>
-      </c>
-      <c r="E30">
-        <v>6.3875488675070299E-2</v>
-      </c>
-      <c r="F30">
-        <v>3.16920647734866E-2</v>
-      </c>
-      <c r="G30">
-        <v>4.1221356852345098E-2</v>
+        <v>43</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1.0118472880260999E-2</v>
+      </c>
+      <c r="C30" s="5">
+        <v>8.9363117209357093E-3</v>
+      </c>
+      <c r="D30" s="5">
+        <v>8.9376185209663599E-3</v>
+      </c>
+      <c r="E30" s="5">
+        <v>9.2408891783159006E-3</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1.1222177365567401E-2</v>
+      </c>
+      <c r="G30" s="5">
+        <v>1.3299806953421299E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B31">
-        <v>1.81666109066577E-2</v>
-      </c>
-      <c r="C31">
-        <v>1.7744736270892101E-2</v>
-      </c>
-      <c r="D31">
-        <v>1.9598393574297199E-2</v>
-      </c>
-      <c r="E31">
-        <v>1.6050697348258602E-2</v>
-      </c>
-      <c r="F31">
-        <v>2.7144535840187899E-2</v>
-      </c>
-      <c r="G31">
-        <v>2.5760397268777099E-2</v>
+        <v>44</v>
+      </c>
+      <c r="B31" s="5">
+        <v>6.2044922903585899E-4</v>
+      </c>
+      <c r="C31" s="5">
+        <v>7.3218609635969498E-4</v>
+      </c>
+      <c r="D31" s="5">
+        <v>9.7484426233994403E-4</v>
+      </c>
+      <c r="E31" s="5">
+        <v>6.40836616852292E-4</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1.5042082632286901E-3</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1.43949549587225E-3</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>2.6530612244897899E-2</v>
-      </c>
-      <c r="C32">
-        <v>6.1274509803921498E-3</v>
-      </c>
-      <c r="D32">
-        <v>7.9999999999999898E-3</v>
-      </c>
-      <c r="E32">
-        <v>5.7553956834532301E-2</v>
-      </c>
-      <c r="F32">
-        <v>9.9099099099099006E-3</v>
-      </c>
-      <c r="G32">
-        <v>6.6666666666666596E-2</v>
+        <v>57</v>
+      </c>
+      <c r="B32" s="5">
+        <v>2663.5810000000001</v>
+      </c>
+      <c r="C32" s="5">
+        <v>2716.3420000000001</v>
+      </c>
+      <c r="D32" s="5">
+        <v>2417.931</v>
+      </c>
+      <c r="E32" s="5">
+        <v>2775.6709999999998</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2893.6219999999998</v>
+      </c>
+      <c r="G32" s="5">
+        <v>2851.1559999999999</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
-        <v>3.8558813849204798E-3</v>
-      </c>
-      <c r="C33">
-        <v>1.1296682583327199E-3</v>
-      </c>
-      <c r="D33">
-        <v>1.4812349904721001E-3</v>
-      </c>
-      <c r="E33">
-        <v>6.8954756272860303E-3</v>
-      </c>
-      <c r="F33">
-        <v>8.1754586138236098E-4</v>
-      </c>
-      <c r="G33">
-        <v>5.78252685595043E-3</v>
+        <v>42</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1570.1029999999901</v>
+      </c>
+      <c r="C33" s="5">
+        <v>1423.3420000000001</v>
+      </c>
+      <c r="D33" s="5">
+        <v>1373.4680000000001</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1487.9949999999899</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1511.3109999999999</v>
+      </c>
+      <c r="G33" s="5">
+        <v>1428.114</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
-      </c>
-      <c r="B34">
-        <v>1.0118472880260999E-2</v>
-      </c>
-      <c r="C34">
-        <v>8.9363117209357093E-3</v>
-      </c>
-      <c r="D34">
-        <v>8.9376185209663599E-3</v>
-      </c>
-      <c r="E34">
-        <v>9.2408891783159006E-3</v>
-      </c>
-      <c r="F34">
-        <v>1.1222177365567401E-2</v>
-      </c>
-      <c r="G34">
-        <v>1.3299806953421299E-2</v>
+        <v>46</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1.0274211957883399E-3</v>
+      </c>
+      <c r="C34" s="5">
+        <v>1.0486323263325199E-3</v>
+      </c>
+      <c r="D34" s="5">
+        <v>9.8607544514883109E-4</v>
+      </c>
+      <c r="E34" s="5">
+        <v>9.2607109312430101E-4</v>
+      </c>
+      <c r="F34" s="5">
+        <v>9.5755493436132898E-4</v>
+      </c>
+      <c r="G34" s="5">
+        <v>1.04725579960243E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>6.2044922903585899E-4</v>
-      </c>
-      <c r="C35">
-        <v>7.3218609635969498E-4</v>
-      </c>
-      <c r="D35">
-        <v>9.7484426233994403E-4</v>
-      </c>
-      <c r="E35">
-        <v>6.40836616852292E-4</v>
-      </c>
-      <c r="F35">
-        <v>1.5042082632286901E-3</v>
-      </c>
-      <c r="G35">
-        <v>1.43949549587225E-3</v>
+        <v>45</v>
+      </c>
+      <c r="B35" s="5">
+        <v>5.1227752789033E-2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>4.9415844648642501E-2</v>
+      </c>
+      <c r="D35" s="5">
+        <v>5.1063479725353002E-2</v>
+      </c>
+      <c r="E35" s="5">
+        <v>5.6968269365044698E-2</v>
+      </c>
+      <c r="F35" s="5">
+        <v>6.4156601362588495E-2</v>
+      </c>
+      <c r="G35" s="5">
+        <v>6.45075289965754E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36">
-        <v>2663.5810000000001</v>
-      </c>
-      <c r="C36">
-        <v>2716.3420000000001</v>
-      </c>
-      <c r="D36">
-        <v>2417.931</v>
-      </c>
-      <c r="E36">
-        <v>2775.6709999999998</v>
-      </c>
-      <c r="F36">
-        <v>2893.6219999999998</v>
-      </c>
-      <c r="G36">
-        <v>2851.1559999999999</v>
-      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37">
-        <v>1570.1029999999901</v>
-      </c>
-      <c r="C37">
-        <v>1423.3420000000001</v>
-      </c>
-      <c r="D37">
-        <v>1373.4680000000001</v>
-      </c>
-      <c r="E37">
-        <v>1487.9949999999899</v>
-      </c>
-      <c r="F37">
-        <v>1511.3109999999999</v>
-      </c>
-      <c r="G37">
-        <v>1428.114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38">
-        <v>1.0274211957883399E-3</v>
-      </c>
-      <c r="C38">
-        <v>1.0486323263325199E-3</v>
-      </c>
-      <c r="D38">
-        <v>9.8607544514883109E-4</v>
-      </c>
-      <c r="E38">
-        <v>9.2607109312430101E-4</v>
-      </c>
-      <c r="F38">
-        <v>9.5755493436132898E-4</v>
-      </c>
-      <c r="G38">
-        <v>1.04725579960243E-3</v>
-      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
       <c r="B39">
-        <v>5.1227752789033E-2</v>
-      </c>
-      <c r="C39">
-        <v>4.9415844648642501E-2</v>
-      </c>
-      <c r="D39">
-        <v>5.1063479725353002E-2</v>
-      </c>
-      <c r="E39">
-        <v>5.6968269365044698E-2</v>
-      </c>
-      <c r="F39">
-        <v>6.4156601362588495E-2</v>
-      </c>
-      <c r="G39">
-        <v>6.45075289965754E-2</v>
+        <v>9446943722</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>9016006958</v>
+      </c>
+      <c r="C40">
+        <v>9009296894</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41">
+        <v>10053546444</v>
+      </c>
+      <c r="C41">
+        <v>8861886669</v>
+      </c>
+      <c r="D41">
+        <v>3303016330</v>
+      </c>
+      <c r="E41">
+        <v>950699564</v>
+      </c>
+      <c r="F41">
+        <v>5860039412</v>
+      </c>
+      <c r="G41">
+        <v>9096976660</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>411669860</v>
+      </c>
+      <c r="C42">
+        <v>9009045754</v>
+      </c>
+      <c r="D42">
+        <v>2630248398</v>
+      </c>
+      <c r="E42">
+        <v>6138661925</v>
+      </c>
+      <c r="F42">
+        <v>5935913680</v>
+      </c>
+      <c r="G42">
+        <v>9739275273</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="B43">
-        <v>9446943722</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" t="s">
-        <v>37</v>
-      </c>
-      <c r="E43" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" t="s">
-        <v>39</v>
-      </c>
-      <c r="G43" t="s">
-        <v>40</v>
+        <v>0.33877551020408098</v>
+      </c>
+      <c r="C43">
+        <v>0.26102941176470501</v>
+      </c>
+      <c r="D43">
+        <v>0.20799999999999999</v>
+      </c>
+      <c r="E43">
+        <v>0.24100719424460401</v>
+      </c>
+      <c r="F43">
+        <v>0.2</v>
+      </c>
+      <c r="G43">
+        <v>0.21666666666666601</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="B44">
-        <v>9016006958</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>9009296894</v>
-      </c>
-      <c r="D44" t="s">
-        <v>42</v>
-      </c>
-      <c r="E44" t="s">
-        <v>43</v>
-      </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
-      <c r="G44" t="s">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>3.5971223021582701E-3</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B45">
-        <v>10053546444</v>
+        <v>0.63673469387755099</v>
       </c>
       <c r="C45">
-        <v>8861886669</v>
+        <v>0.64705882352941102</v>
       </c>
       <c r="D45">
-        <v>3303016330</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="E45">
-        <v>950699564</v>
+        <v>0.69784172661870503</v>
       </c>
       <c r="F45">
-        <v>5860039412</v>
+        <v>0.70810810810810798</v>
       </c>
       <c r="G45">
-        <v>9096976660</v>
+        <v>0.73888888888888804</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="B46">
-        <v>411669860</v>
+        <v>2.04081632653061E-2</v>
       </c>
       <c r="C46">
-        <v>9009045754</v>
+        <v>9.1911764705882304E-2</v>
       </c>
       <c r="D46">
-        <v>2630248398</v>
+        <v>1.6E-2</v>
       </c>
       <c r="E46">
-        <v>6138661925</v>
+        <v>5.7553956834532301E-2</v>
       </c>
       <c r="F46">
-        <v>5935913680</v>
+        <v>9.1891891891891897E-2</v>
       </c>
       <c r="G46">
-        <v>9739275273</v>
+        <v>4.4444444444444398E-2</v>
       </c>
     </row>
   </sheetData>

--- a/test-thesis/data/network_indicators_cleaning.xlsx
+++ b/test-thesis/data/network_indicators_cleaning.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>k_avg</t>
   </si>
@@ -105,9 +105,6 @@
     <t>m - number of edges</t>
   </si>
   <si>
-    <t>Total edge length</t>
-  </si>
-  <si>
     <t>Avg street per node</t>
   </si>
   <si>
@@ -129,27 +126,18 @@
     <t>Avg street length (m)</t>
   </si>
   <si>
-    <t>Total street length (m)</t>
-  </si>
-  <si>
     <t>Node density (per km)</t>
   </si>
   <si>
     <t>Intersection density (per km)</t>
   </si>
   <si>
-    <t xml:space="preserve">Street density (per km) </t>
-  </si>
-  <si>
     <t>Clean intersection density (km)</t>
   </si>
   <si>
     <t>Mean of avg neighborhood degree</t>
   </si>
   <si>
-    <t>Radius</t>
-  </si>
-  <si>
     <t>Max pagerank</t>
   </si>
   <si>
@@ -192,7 +180,22 @@
     <t>Edge density (km/km2)</t>
   </si>
   <si>
-    <t>Diameter</t>
+    <t>Tafo</t>
+  </si>
+  <si>
+    <t>Total edge length (km)</t>
+  </si>
+  <si>
+    <t>Total street length (km)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Street density (km/km2) </t>
+  </si>
+  <si>
+    <t>Diameter (km)</t>
+  </si>
+  <si>
+    <t>Radius (km)</t>
   </si>
 </sst>
 </file>
@@ -200,7 +203,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -692,12 +695,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1021,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection sqref="A1:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1037,22 +1040,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="5"/>
       <c r="B2" s="1" t="s">
         <v>21</v>
       </c>
@@ -1065,54 +1068,56 @@
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>53</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>245</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>272</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>250</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>278</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>185</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>543</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>654</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>610</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>618</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>462</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>415</v>
       </c>
     </row>
@@ -1120,620 +1125,620 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="4">
         <v>4.4326530612244897</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>4.8088235294117601</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>4.88</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="4">
         <v>4.4460431654676196</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="4">
         <v>4.9945945945945898</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="4">
         <v>4.6111111111111098</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="5">
-        <v>39576.1329999999</v>
-      </c>
-      <c r="C6" s="5">
-        <v>56163.275999999903</v>
-      </c>
-      <c r="D6" s="5">
-        <v>53953.811999999998</v>
-      </c>
-      <c r="E6" s="5">
-        <v>44779.828000000001</v>
-      </c>
-      <c r="F6" s="5">
-        <v>50352.375999999902</v>
-      </c>
-      <c r="G6" s="5">
-        <v>38638.597999999904</v>
+        <v>54</v>
+      </c>
+      <c r="B6" s="4">
+        <v>39.576132999999899</v>
+      </c>
+      <c r="C6" s="4">
+        <v>56.163275999999897</v>
+      </c>
+      <c r="D6" s="4">
+        <v>53.953811999999999</v>
+      </c>
+      <c r="E6" s="4">
+        <v>44.779828000000002</v>
+      </c>
+      <c r="F6" s="4">
+        <v>50.3523759999999</v>
+      </c>
+      <c r="G6" s="4">
+        <v>38.638597999999902</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="5">
+        <v>51</v>
+      </c>
+      <c r="B7" s="4">
         <v>72.884222836095603</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="4">
         <v>85.876568807339396</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="4">
         <v>88.448872131147496</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="4">
         <v>72.459268608414305</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="4">
         <v>108.987826839826</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="4">
         <v>93.1050554216867</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="4">
+        <v>2.3591836734693801</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.5698529411764701</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2.6</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2.5719424460431601</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.6918918918918902</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2.6111111111111098</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="5">
-        <v>2.3591836734693801</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2.5698529411764701</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2.6</v>
-      </c>
-      <c r="E8" s="5">
-        <v>2.5719424460431601</v>
-      </c>
-      <c r="F8" s="5">
-        <v>2.6918918918918902</v>
-      </c>
-      <c r="G8" s="5">
-        <v>2.6111111111111098</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="5">
+      <c r="B9" s="2">
         <v>162</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="2">
         <v>201</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>198</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="2">
         <v>211</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="2">
         <v>148</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="2">
         <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="5">
-        <v>19868.93</v>
-      </c>
-      <c r="C10" s="5">
-        <v>28081.637999999901</v>
-      </c>
-      <c r="D10" s="5">
-        <v>26976.905999999901</v>
-      </c>
-      <c r="E10" s="5">
-        <v>23635.817999999999</v>
-      </c>
-      <c r="F10" s="5">
-        <v>25176.187999999998</v>
-      </c>
-      <c r="G10" s="5">
-        <v>20341.157999999901</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="5">
+        <v>55</v>
+      </c>
+      <c r="B10" s="4">
+        <v>19.868929999999999</v>
+      </c>
+      <c r="C10" s="4">
+        <v>28.081637999999899</v>
+      </c>
+      <c r="D10" s="4">
+        <v>26.9769059999999</v>
+      </c>
+      <c r="E10" s="4">
+        <v>23.635818</v>
+      </c>
+      <c r="F10" s="4">
+        <v>25.176188</v>
+      </c>
+      <c r="G10" s="4">
+        <v>20.341157999999901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="2">
         <v>274</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="2">
         <v>327</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="2">
         <v>305</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="2">
         <v>338</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="2">
         <v>231</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="2">
         <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="5">
+        <v>34</v>
+      </c>
+      <c r="B12" s="4">
         <v>72.514343065693396</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="4">
         <v>85.876568807339396</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>88.448872131147496</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>69.928455621301794</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>108.987826839826</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>91.626837837837698</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="5">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4">
         <v>1.0665630915945701</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="4">
         <v>1.03665231459166</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="4">
         <v>1.05141202672447</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="4">
         <v>1.08452698266384</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="4">
         <v>1.04425202322317</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>1.1207240144874899</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="5">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4">
         <v>3.6496350364963498E-3</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="4">
         <v>0</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="4">
         <v>0</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="5">
+        <v>33</v>
+      </c>
+      <c r="B15" s="4">
         <v>118</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="4">
         <v>159</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <v>154</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="4">
         <v>118</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="4">
         <v>127</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="4">
         <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" s="5">
+        <v>35</v>
+      </c>
+      <c r="B16" s="4">
         <v>150.05411633846001</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="4">
         <v>156.36065393990199</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>144.60613117367501</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="4">
         <v>158.515490816214</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="4">
         <v>103.878924428913</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="4">
         <v>104.839774595181</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="5">
+        <v>36</v>
+      </c>
+      <c r="B17" s="4">
         <v>99.219456517675695</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="4">
         <v>115.545924418824</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>114.52805588955</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>120.31211713029199</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="4">
         <v>83.103139543130993</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="4">
         <v>82.124490099558599</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="5">
-        <v>24239.0272057484</v>
-      </c>
-      <c r="C18" s="5">
-        <v>32285.759421938201</v>
-      </c>
-      <c r="D18" s="5">
-        <v>31208.2080615673</v>
-      </c>
-      <c r="E18" s="5">
-        <v>25533.440338437598</v>
-      </c>
-      <c r="F18" s="5">
-        <v>28273.246817947202</v>
-      </c>
-      <c r="G18" s="5">
-        <v>22504.788361076698</v>
+    <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="4">
+        <v>24.230027205748399</v>
+      </c>
+      <c r="C18" s="4">
+        <v>32.285759421938202</v>
+      </c>
+      <c r="D18" s="4">
+        <v>31.208208061567301</v>
+      </c>
+      <c r="E18" s="4">
+        <v>25.5334403384376</v>
+      </c>
+      <c r="F18" s="4">
+        <v>28.2732468179472</v>
+      </c>
+      <c r="G18" s="4">
+        <v>22.504788361076699</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="5">
-        <v>12169.039729553901</v>
-      </c>
-      <c r="C19" s="5">
-        <v>16142.8797109691</v>
-      </c>
-      <c r="D19" s="5">
-        <v>15604.104030783599</v>
-      </c>
-      <c r="E19" s="5">
-        <v>13477.134140693201</v>
-      </c>
-      <c r="F19" s="5">
-        <v>14136.623408973601</v>
-      </c>
-      <c r="G19" s="5">
-        <v>11847.568998471999</v>
+        <v>56</v>
+      </c>
+      <c r="B19" s="4">
+        <v>12.1690397295539</v>
+      </c>
+      <c r="C19" s="4">
+        <v>16.142879710969101</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15.604104030783599</v>
+      </c>
+      <c r="E19" s="4">
+        <v>13.477134140693201</v>
+      </c>
+      <c r="F19" s="4">
+        <v>14.1366234089736</v>
+      </c>
+      <c r="G19" s="4">
+        <v>11.847568998471999</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="5">
+        <v>37</v>
+      </c>
+      <c r="B20" s="4">
         <v>72.270962154850196</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>91.401999913398697</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>89.077376802984006</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="4">
         <v>67.283553655803303</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="4">
         <v>71.311477851200195</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>57.079432835154201</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="3">
+    <row r="21" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2">
         <v>83</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>71</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>52</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>67</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>37</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3">
+    <row r="22" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2">
         <v>0</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>0</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>0</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" s="3">
+    <row r="23" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2">
         <v>156</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>176</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>194</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>194</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>131</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B24" s="3">
+    <row r="24" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="2">
         <v>5</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>25</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>4</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>16</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>17</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="5">
+        <v>38</v>
+      </c>
+      <c r="B25" s="4">
         <v>2.6612244897959099</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>2.8091299019607798</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>2.7476666666666598</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>2.5911270983213401</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="4">
         <v>2.8833333333333302</v>
       </c>
-      <c r="G25" s="5">
+      <c r="G25" s="4">
         <v>2.5953703703703699</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="5">
+        <v>50</v>
+      </c>
+      <c r="B26" s="4">
         <v>9.4060299511676895E-2</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>4.4855511991016797E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>4.3693843693745002E-2</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>6.3875488675070299E-2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="4">
         <v>3.16920647734866E-2</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="4">
         <v>4.1221356852345098E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="5">
+        <v>47</v>
+      </c>
+      <c r="B27" s="4">
         <v>1.81666109066577E-2</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>1.7744736270892101E-2</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>1.9598393574297199E-2</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>1.6050697348258602E-2</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="4">
         <v>2.7144535840187899E-2</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="4">
         <v>2.5760397268777099E-2</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" s="5">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4">
         <v>2.6530612244897899E-2</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>6.1274509803921498E-3</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="4">
         <v>7.9999999999999898E-3</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E28" s="4">
         <v>5.7553956834532301E-2</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F28" s="4">
         <v>9.9099099099099006E-3</v>
       </c>
-      <c r="G28" s="5">
+      <c r="G28" s="4">
         <v>6.6666666666666596E-2</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="5">
+        <v>49</v>
+      </c>
+      <c r="B29" s="4">
         <v>3.8558813849204798E-3</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>1.1296682583327199E-3</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="4">
         <v>1.4812349904721001E-3</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29" s="4">
         <v>6.8954756272860303E-3</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29" s="4">
         <v>8.1754586138236098E-4</v>
       </c>
-      <c r="G29" s="5">
+      <c r="G29" s="4">
         <v>5.78252685595043E-3</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="5">
+        <v>39</v>
+      </c>
+      <c r="B30" s="4">
         <v>1.0118472880260999E-2</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="4">
         <v>8.9363117209357093E-3</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="4">
         <v>8.9376185209663599E-3</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E30" s="4">
         <v>9.2408891783159006E-3</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F30" s="4">
         <v>1.1222177365567401E-2</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="4">
         <v>1.3299806953421299E-2</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="5">
+        <v>40</v>
+      </c>
+      <c r="B31" s="4">
         <v>6.2044922903585899E-4</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="4">
         <v>7.3218609635969498E-4</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="4">
         <v>9.7484426233994403E-4</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E31" s="4">
         <v>6.40836616852292E-4</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F31" s="4">
         <v>1.5042082632286901E-3</v>
       </c>
-      <c r="G31" s="5">
+      <c r="G31" s="4">
         <v>1.43949549587225E-3</v>
       </c>
     </row>
@@ -1741,109 +1746,109 @@
       <c r="A32" t="s">
         <v>57</v>
       </c>
-      <c r="B32" s="5">
-        <v>2663.5810000000001</v>
-      </c>
-      <c r="C32" s="5">
-        <v>2716.3420000000001</v>
-      </c>
-      <c r="D32" s="5">
-        <v>2417.931</v>
-      </c>
-      <c r="E32" s="5">
-        <v>2775.6709999999998</v>
-      </c>
-      <c r="F32" s="5">
-        <v>2893.6219999999998</v>
-      </c>
-      <c r="G32" s="5">
-        <v>2851.1559999999999</v>
+      <c r="B32" s="4">
+        <v>2.6635810000000002</v>
+      </c>
+      <c r="C32" s="4">
+        <v>2.716342</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2.4179309999999998</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.775671</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2.8936220000000001</v>
+      </c>
+      <c r="G32" s="4">
+        <v>2.851156</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1570.1029999999901</v>
-      </c>
-      <c r="C33" s="5">
-        <v>1423.3420000000001</v>
-      </c>
-      <c r="D33" s="5">
-        <v>1373.4680000000001</v>
-      </c>
-      <c r="E33" s="5">
-        <v>1487.9949999999899</v>
-      </c>
-      <c r="F33" s="5">
-        <v>1511.3109999999999</v>
-      </c>
-      <c r="G33" s="5">
-        <v>1428.114</v>
+        <v>58</v>
+      </c>
+      <c r="B33" s="4">
+        <v>1.57010299999999</v>
+      </c>
+      <c r="C33" s="4">
+        <v>1.4233420000000001</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1.3734679999999999</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1.48799499999999</v>
+      </c>
+      <c r="F33" s="4">
+        <v>1.5113110000000001</v>
+      </c>
+      <c r="G33" s="4">
+        <v>1.4281140000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>46</v>
-      </c>
-      <c r="B34" s="5">
+        <v>42</v>
+      </c>
+      <c r="B34" s="4">
         <v>1.0274211957883399E-3</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="4">
         <v>1.0486323263325199E-3</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="4">
         <v>9.8607544514883109E-4</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E34" s="4">
         <v>9.2607109312430101E-4</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="4">
         <v>9.5755493436132898E-4</v>
       </c>
-      <c r="G34" s="5">
+      <c r="G34" s="4">
         <v>1.04725579960243E-3</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" s="5">
+        <v>41</v>
+      </c>
+      <c r="B35" s="4">
         <v>5.1227752789033E-2</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="4">
         <v>4.9415844648642501E-2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="4">
         <v>5.1063479725353002E-2</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E35" s="4">
         <v>5.6968269365044698E-2</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F35" s="4">
         <v>6.4156601362588495E-2</v>
       </c>
-      <c r="G35" s="5">
+      <c r="G35" s="4">
         <v>6.45075289965754E-2</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
